--- a/Книга2.xlsx
+++ b/Книга2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheTarusovs\Desktop\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CourseraDataEd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1448,6 +1448,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1484,16 +1487,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1529,6 +1542,14 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
   </dxfs>
@@ -1559,26 +1580,26 @@
     <tableColumn id="6" name="Сумма--- ОблгЗкзН"/>
     <tableColumn id="7" name="2017--- ОблгЗкзН"/>
     <tableColumn id="8" name="2017--= Assigned"/>
-    <tableColumn id="9" name="Итого--= Assigned" dataDxfId="8"/>
+    <tableColumn id="9" name="Итого--= Assigned" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:F137" totalsRowShown="0">
-  <autoFilter ref="A1:F137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:F138" totalsRowCount="1">
+  <autoFilter ref="A1:F138">
     <filterColumn colId="0">
-      <colorFilter dxfId="4"/>
+      <colorFilter dxfId="11"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="Объект"/>
     <tableColumn id="2" name="Столбец1"/>
-    <tableColumn id="3" name="Бюджет--Сумма" dataDxfId="7"/>
+    <tableColumn id="3" name="Бюджет--Сумма" dataDxfId="10" totalsRowDxfId="2"/>
     <tableColumn id="4" name="Облиго--Сумма"/>
-    <tableColumn id="5" name="Факт--Сумма" dataDxfId="6"/>
-    <tableColumn id="6" name="Остаток" dataDxfId="5">
+    <tableColumn id="5" name="Факт--Сумма" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="Остаток" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0">
       <calculatedColumnFormula>Таблица3[[#This Row],[Бюджет--Сумма]]-Таблица3[[#This Row],[Облиго--Сумма]]-Таблица3[[#This Row],[Факт--Сумма]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1590,16 +1611,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:F107" totalsRowShown="0">
   <autoFilter ref="A1:F107">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="7"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="Объект"/>
     <tableColumn id="2" name="Столбец1"/>
-    <tableColumn id="3" name="Бюджет--Сумма" dataDxfId="3"/>
+    <tableColumn id="3" name="Бюджет--Сумма" dataDxfId="6"/>
     <tableColumn id="4" name="Облиго--Сумма"/>
-    <tableColumn id="5" name="Факт--Сумма" dataDxfId="2"/>
-    <tableColumn id="6" name="Остаток" dataDxfId="1">
+    <tableColumn id="5" name="Факт--Сумма" dataDxfId="5"/>
+    <tableColumn id="6" name="Остаток" dataDxfId="4">
       <calculatedColumnFormula>Таблица4[[#This Row],[Бюджет--Сумма]]-Таблица4[[#This Row],[Облиго--Сумма]]-Таблица4[[#This Row],[Факт--Сумма]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5869,10 +5890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5882,6 +5903,7 @@
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8755,6 +8777,14 @@
       <c r="F137">
         <f>Таблица3[[#This Row],[Бюджет--Сумма]]-Таблица3[[#This Row],[Облиго--Сумма]]-Таблица3[[#This Row],[Факт--Сумма]]</f>
         <v>6796455</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="4">
+        <f>SUBTOTAL(109,Таблица3[Остаток])</f>
+        <v>5461294</v>
       </c>
     </row>
   </sheetData>
